--- a/11-CollaborationList/QueenMary.xlsx
+++ b/11-CollaborationList/QueenMary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDC638-C864-8C46-9F3B-8907377FC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16643A-7D15-C740-BAD3-B13FC3AD6D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
+    <workbookView xWindow="3360" yWindow="9340" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -79,19 +79,19 @@
     <t>Hobson</t>
   </si>
   <si>
-    <t>P.</t>
-  </si>
-  <si>
     <t>p.hobson@qmul.ac.uk</t>
   </si>
   <si>
-    <t>Peter R. Hobson</t>
-  </si>
-  <si>
     <t>QMUL-Physics</t>
   </si>
   <si>
     <t>School of Physical and Chemical Sciences, Queen Mary University of London, Mile End, London E1 4NS, UK</t>
+  </si>
+  <si>
+    <t>P.R.</t>
+  </si>
+  <si>
+    <t>P.R. Hobson</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,19 +1075,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/11-CollaborationList/QueenMary.xlsx
+++ b/11-CollaborationList/QueenMary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16643A-7D15-C740-BAD3-B13FC3AD6D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081AE69-FA2F-4C49-9653-E3498CF2B8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="9340" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
+    <workbookView xWindow="3360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>QMUL-Physics</t>
   </si>
   <si>
-    <t>School of Physical and Chemical Sciences, Queen Mary University of London, Mile End, London E1 4NS, UK</t>
-  </si>
-  <si>
     <t>P.R.</t>
   </si>
   <si>
     <t>P.R. Hobson</t>
+  </si>
+  <si>
+    <t>School of Physical and Chemical Sciences, Queen Mary University of London, Mile End, London, E1 4NS, UK</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,19 +1075,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>
